--- a/inst/jk 2023 11 14 ipRGC.xlsx
+++ b/inst/jk 2023 11 14 ipRGC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>preset</t>
   </si>
@@ -84,7 +84,178 @@
     <t>receptorType</t>
   </si>
   <si>
-    <t>modulation</t>
+    <t>contrastRed</t>
+  </si>
+  <si>
+    <t>contrastGreen</t>
+  </si>
+  <si>
+    <t>contrastBlue</t>
+  </si>
+  <si>
+    <t>contrastAmber</t>
+  </si>
+  <si>
+    <t>contrastCyan</t>
+  </si>
+  <si>
+    <t>frequencyRed</t>
+  </si>
+  <si>
+    <t>frequencyGreen</t>
+  </si>
+  <si>
+    <t>frequencyBlue</t>
+  </si>
+  <si>
+    <t>frequencyAmber</t>
+  </si>
+  <si>
+    <t>frequencyCyan</t>
+  </si>
+  <si>
+    <t>shiftRed</t>
+  </si>
+  <si>
+    <t>shiftGreen</t>
+  </si>
+  <si>
+    <t>shiftBlue</t>
+  </si>
+  <si>
+    <t>shiftAmber</t>
+  </si>
+  <si>
+    <t>shiftCyan</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>amber</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>point.x</t>
+  </si>
+  <si>
+    <t>point.y</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>lineWidth</t>
+  </si>
+  <si>
+    <t>innerGeo.center.x</t>
+  </si>
+  <si>
+    <t>innerGeo.center.y</t>
+  </si>
+  <si>
+    <t>innerGeo.radius</t>
+  </si>
+  <si>
+    <t>innerGeo.colour.red</t>
+  </si>
+  <si>
+    <t>innerGeo.colour.green</t>
+  </si>
+  <si>
+    <t>innerGeo.colour.blue</t>
+  </si>
+  <si>
+    <t>innerGeo.colour.amber</t>
+  </si>
+  <si>
+    <t>innerGeo.colour.cyan</t>
+  </si>
+  <si>
+    <t>innerGeo.modulate</t>
+  </si>
+  <si>
+    <t>outerGeo.center.x</t>
+  </si>
+  <si>
+    <t>outerGeo.center.y</t>
+  </si>
+  <si>
+    <t>outerGeo.radius</t>
+  </si>
+  <si>
+    <t>outerGeo.colour.red</t>
+  </si>
+  <si>
+    <t>outerGeo.colour.green</t>
+  </si>
+  <si>
+    <t>outerGeo.colour.blue</t>
+  </si>
+  <si>
+    <t>outerGeo.colour.amber</t>
+  </si>
+  <si>
+    <t>outerGeo.colour.cyan</t>
+  </si>
+  <si>
+    <t>outerGeo.modulate</t>
+  </si>
+  <si>
+    <t>outerGeoType</t>
+  </si>
+  <si>
+    <t>innerGeoType</t>
+  </si>
+  <si>
+    <t>geoName</t>
+  </si>
+  <si>
+    <t>innerGeometry</t>
+  </si>
+  <si>
+    <t>outerGeometry</t>
+  </si>
+  <si>
+    <t>strName</t>
+  </si>
+  <si>
+    <t>testContrast</t>
+  </si>
+  <si>
+    <t>startContrastFactor</t>
+  </si>
+  <si>
+    <t>minContrastFactor</t>
+  </si>
+  <si>
+    <t>maxContrastFactor</t>
+  </si>
+  <si>
+    <t>testFrequency</t>
+  </si>
+  <si>
+    <t>startFrequency</t>
+  </si>
+  <si>
+    <t>minFrequency</t>
+  </si>
+  <si>
+    <t>maxFrequency</t>
+  </si>
+  <si>
+    <t>maxAdjustments</t>
+  </si>
+  <si>
+    <t>adjustments</t>
   </si>
   <si>
     <t>fea0f8a4-66bb-40e8-b694-3f2bd891996b</t>
@@ -96,22 +267,19 @@
     <t>ipRGC</t>
   </si>
   <si>
-    <t>c(26.11, 26.11, 26.11, 26.11, 26.11, 26.11)</t>
-  </si>
-  <si>
-    <t>c(90, 90, 90, 90, 90, 90)</t>
-  </si>
-  <si>
-    <t>c(55.17, 55.17, 55.17, 55.17, 55.17, 55.17)</t>
-  </si>
-  <si>
-    <t>c(84.14, 84.14, 84.14, 84.14, 84.14, 84.14)</t>
-  </si>
-  <si>
-    <t>c(60.08, 60.08, 60.08, 60.08, 60.08, 60.08)</t>
-  </si>
-  <si>
-    <t>c(10, 4, 2, 1, 8, 6)</t>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>LEDProjektor.DataClasses.Circle</t>
+  </si>
+  <si>
+    <t>Circular Discs</t>
+  </si>
+  <si>
+    <t>Step Up/Down</t>
+  </si>
+  <si>
+    <t>c(0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5, 0.5)</t>
   </si>
 </sst>
 </file>
@@ -330,6 +498,177 @@
       <c r="F1" t="s">
         <v>23</v>
       </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -339,16 +678,187 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>84.14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -359,16 +869,187 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>84.14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -379,16 +1060,187 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
+        <v>83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="I4" t="n">
+        <v>84.14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -399,16 +1251,187 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
+        <v>83</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>84.14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -419,16 +1442,187 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>84.14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -439,16 +1633,187 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
+        <v>83</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="G7" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>84.14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>60.08</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
